--- a/doc/kotlin_books.xlsx
+++ b/doc/kotlin_books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\Dropbox\software\projects\teaching\kotlin-programming\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D249EF-FCB5-414F-8FE1-BFC46FF6DE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18204EB9-1F76-45B4-BD6B-B2AA117366B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="252" windowWidth="21228" windowHeight="11772" activeTab="3" xr2:uid="{5ADC0BB5-8899-4FAF-B795-554C47EA3F44}"/>
+    <workbookView xWindow="-23190" yWindow="2745" windowWidth="21225" windowHeight="11775" activeTab="2" xr2:uid="{5ADC0BB5-8899-4FAF-B795-554C47EA3F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1039,7 +1039,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,13 +1108,6 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF0F1111"/>
       <name val="Arial"/>
@@ -1135,12 +1128,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1178,7 +1180,7 @@
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6667,9 +6669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3330A566-B3F3-449C-920E-B27FFFF371B4}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6680,9 +6682,9 @@
     <col min="8" max="8" width="36.5546875" customWidth="1"/>
     <col min="9" max="9" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="27.77734375" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.77734375" customWidth="1"/>
@@ -6778,10 +6780,10 @@
       <c r="K2" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>233</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -6851,10 +6853,10 @@
       <c r="K4" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="13">
         <v>1491996692</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>232</v>
       </c>
       <c r="O4" s="9" t="s">
@@ -6918,10 +6920,10 @@
       <c r="K6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="13" t="s">
         <v>231</v>
       </c>
       <c r="O6" s="9" t="s">
@@ -6933,7 +6935,7 @@
       <c r="Q6" s="10">
         <v>44474</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6988,7 +6990,7 @@
       <c r="K8" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="13" t="s">
         <v>230</v>
       </c>
       <c r="O8" s="9" t="s">
@@ -7699,7 +7701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD78CDD-5CAB-4ECA-B1B4-A4095F46332D}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
